--- a/100_Maintenance/02_Edit_Records/02_09_Edit_Attachments_EX/Attachments_EX_Backup - 10th December 2025.xlsx
+++ b/100_Maintenance/02_Edit_Records/02_09_Edit_Attachments_EX/Attachments_EX_Backup - 10th December 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnhind-my.sharepoint.com/personal/tavinder_arora_cnhind_com/Documents/Desktop/attachmentscnh/100_Maintenance/02_Edit_Records/02_09_Edit_Attachments_EX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_46B7C70FEBE9FE625C60025B18D19B5FA12CC075" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17CE815A-4465-42E8-9466-4F970A664EB5}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_46B7C70FEBE9FE625C60025B18D19B5FA12CC075" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BC3109E-1E46-4F7E-B0D9-35445445282E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="383">
   <si>
     <t>id</t>
   </si>
@@ -1180,6 +1180,12 @@
   </si>
   <si>
     <t>Hydraulic Hammer CH-310 for CX470C, CX490D</t>
+  </si>
+  <si>
+    <t>CX750D_ME</t>
+  </si>
+  <si>
+    <t>CX750D</t>
   </si>
 </sst>
 </file>
@@ -1232,6 +1238,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1562,9 +1572,9 @@
       <selection sqref="A1:EJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -2065,7 +2075,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -2106,7 +2116,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -2147,7 +2157,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -2206,7 +2216,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -2309,7 +2319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>170</v>
       </c>
@@ -2350,7 +2360,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -2391,7 +2401,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -2514,7 +2524,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -2555,7 +2565,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -2596,7 +2606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:139" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -2655,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -2714,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -2796,7 +2806,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>207</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -2919,7 +2929,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>216</v>
       </c>
@@ -2960,7 +2970,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -3001,7 +3011,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -3051,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>225</v>
       </c>
@@ -3092,7 +3102,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>228</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -3174,7 +3184,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -3233,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>237</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>240</v>
       </c>
@@ -3315,7 +3325,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>243</v>
       </c>
@@ -3374,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>248</v>
       </c>
@@ -3415,7 +3425,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>251</v>
       </c>
@@ -3456,7 +3466,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>254</v>
       </c>
@@ -3497,7 +3507,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>258</v>
       </c>
@@ -3538,7 +3548,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>261</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>267</v>
       </c>
@@ -3641,7 +3651,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>270</v>
       </c>
@@ -3682,7 +3692,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>273</v>
       </c>
@@ -3723,7 +3733,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>276</v>
       </c>
@@ -3773,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -3814,7 +3824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>281</v>
       </c>
@@ -3876,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>283</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>288</v>
       </c>
@@ -3985,7 +3995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>291</v>
       </c>
@@ -4026,7 +4036,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -4067,7 +4077,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>297</v>
       </c>
@@ -4108,7 +4118,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>303</v>
       </c>
@@ -4214,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>309</v>
       </c>
@@ -4273,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>315</v>
       </c>
@@ -4355,7 +4365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>318</v>
       </c>
@@ -4396,7 +4406,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>321</v>
       </c>
@@ -4437,7 +4447,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>324</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>329</v>
       </c>
@@ -4537,7 +4547,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>332</v>
       </c>
@@ -4578,7 +4588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>335</v>
       </c>
@@ -4619,7 +4629,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -4660,7 +4670,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>341</v>
       </c>
@@ -4701,7 +4711,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>344</v>
       </c>
@@ -4742,7 +4752,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>347</v>
       </c>
@@ -4783,7 +4793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>350</v>
       </c>
@@ -4842,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>353</v>
       </c>
@@ -4910,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -4972,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>363</v>
       </c>
@@ -5013,7 +5023,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="H68" t="s">
         <v>366</v>
       </c>
@@ -5048,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>367</v>
       </c>
@@ -5089,7 +5099,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -5130,7 +5140,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>373</v>
       </c>
@@ -5171,7 +5181,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>376</v>
       </c>
@@ -5233,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>378</v>
       </c>
@@ -5308,7 +5318,7 @@
   <dimension ref="C3:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:L44"/>
+      <selection activeCell="L34" sqref="L34:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5492,7 +5502,7 @@
         <v>20</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" ref="L35:L44" si="0">""""&amp;I35&amp;""""&amp;","</f>
+        <f t="shared" ref="L35:L46" si="0">""""&amp;I35&amp;""""&amp;","</f>
         <v>"CX130C_D",</v>
       </c>
     </row>
@@ -5577,9 +5587,25 @@
         <v>"CX470C_ME_CX500D_ME",</v>
       </c>
     </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="I45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="0"/>
+        <v>"CX750D_ME",</v>
+      </c>
+    </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="0"/>
+        <v>"CX750D",</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.35">
